--- a/source/source-202104/全部PBC/PBC-xx区-张三-202104/PRC简表-ID005苹果深圳-202104.xlsx
+++ b/source/source-202104/全部PBC/PBC-xx区-张三-202104/PRC简表-ID005苹果深圳-202104.xlsx
@@ -39,9 +39,6 @@
     <t xml:space="preserve">    固定资产</t>
   </si>
   <si>
-    <t xml:space="preserve">    投资性物业</t>
-  </si>
-  <si>
     <t xml:space="preserve">    长期金融资产</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">    合约资产</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    开发中物业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    持作销售的完工物业</t>
   </si>
   <si>
     <t xml:space="preserve">    应收及其他应收款</t>
@@ -105,6 +96,15 @@
   <si>
     <t>表1-aaaa</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    投资性资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    开发中资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    持作销售的完工资产</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -679,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -692,7 +692,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -758,7 +758,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="16" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C7" s="21">
         <v>0</v>
@@ -777,7 +777,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="21">
         <v>0</v>
@@ -796,7 +796,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="21">
         <v>1000000</v>
@@ -815,7 +815,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="21">
         <v>0</v>
@@ -834,7 +834,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -853,7 +853,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="21">
         <v>0</v>
@@ -872,7 +872,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="21">
         <v>0</v>
@@ -891,7 +891,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="25">
         <v>8000000</v>
@@ -921,7 +921,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="21">
         <v>0</v>
@@ -940,7 +940,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C17" s="21">
         <v>0</v>
@@ -959,7 +959,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
@@ -978,7 +978,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="21">
         <v>0</v>
@@ -997,7 +997,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="21">
         <v>0</v>
@@ -1016,7 +1016,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="21">
         <v>9000000</v>
@@ -1035,7 +1035,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="21">
         <v>0</v>
@@ -1054,7 +1054,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="21">
         <v>0</v>
@@ -1073,7 +1073,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="21">
         <v>0</v>
@@ -1092,7 +1092,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="21">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="25">
         <v>96000000</v>
@@ -1130,7 +1130,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="25">
         <v>100000000</v>
